--- a/public/files/bill/bill_86.xlsx
+++ b/public/files/bill/bill_86.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>SHOP BÁN HOA BLOOMS</t>
   </si>
@@ -91,23 +91,6 @@
   </si>
   <si>
     <t>Ngày….. tháng.....năm 2021</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thành tiến (viết bằng chữ)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="12"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
   </si>
   <si>
     <t>TỔNG CỘNG:</t>
@@ -166,18 +149,9 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="0"/>
+      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="single"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -211,9 +185,18 @@
     </font>
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
-      <u val="none"/>
+      <u val="single"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -257,6 +240,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -302,20 +294,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,8 +319,27 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -345,45 +347,26 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -391,8 +374,11 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +724,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,105 +737,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customHeight="1" ht="40.5">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="29.25">
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="11"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" customHeight="1" ht="29.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="11"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" customHeight="1" ht="30">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="11"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" customHeight="1" ht="20.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" customHeight="1" ht="18.75">
       <c r="B6" s="1"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" customHeight="1" ht="18.75">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" customHeight="1" ht="18.75">
       <c r="B8" s="1"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" customHeight="1" ht="18.75">
@@ -952,13 +938,13 @@
     </row>
     <row r="14" spans="1:9" customHeight="1" ht="18.75">
       <c r="B14" s="1"/>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="5">
         <f>SUM(H10:H13)</f>
         <v>1650</v>
@@ -967,73 +953,78 @@
     </row>
     <row r="15" spans="1:9" customHeight="1" ht="18.75">
       <c r="B15" s="1"/>
-      <c r="C15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" customHeight="1" ht="18.75">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" customHeight="1" ht="18.75">
       <c r="B17" s="1"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" customHeight="1" ht="18.75">
       <c r="B18" s="1"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" customHeight="1" ht="18.75">
       <c r="B19" s="1"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="1"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H19"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C15:H15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C14:G14"/>
@@ -1043,12 +1034,6 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
